--- a/Proyecto2021.xlsx
+++ b/Proyecto2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\misitio\Proyecto2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\misitio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31ED613-4DAA-4D64-888B-565C47F42F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3440A83-7C83-4D0C-A34B-F271E1441700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problema" sheetId="1" r:id="rId1"/>
@@ -1489,7 +1489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2130,7 +2132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97DFBFE-A803-4879-863C-5395BEE965EA}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Proyecto2021.xlsx
+++ b/Proyecto2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\misitio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3440A83-7C83-4D0C-A34B-F271E1441700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1E6B30-46E9-4B1F-AD7B-66C813A7CD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problema" sheetId="1" r:id="rId1"/>
@@ -721,6 +721,88 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>511969</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>833438</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Flecha: cheurón 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665497D3-6B0F-4EF3-A414-153961228407}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6465094" y="190500"/>
+          <a:ext cx="2369344" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-GT" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ABeeZee" panose="02000000000000000000" pitchFamily="50" charset="0"/>
+            </a:rPr>
+            <a:t>Trazar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-GT" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ABeeZee" panose="02000000000000000000" pitchFamily="50" charset="0"/>
+            </a:rPr>
+            <a:t> ruta</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-GT" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ABeeZee" panose="02000000000000000000" pitchFamily="50" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -922,6 +1004,88 @@
             </a:rPr>
             <a:t>Distancia</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1523999</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Flecha: cheurón 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0245D2A5-449B-4B93-838A-7DDA9F632A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5310187" y="190500"/>
+          <a:ext cx="2369344" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-GT" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ABeeZee" panose="02000000000000000000" pitchFamily="50" charset="0"/>
+            </a:rPr>
+            <a:t>Trazar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-GT" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ABeeZee" panose="02000000000000000000" pitchFamily="50" charset="0"/>
+            </a:rPr>
+            <a:t> ruta</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-GT" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ABeeZee" panose="02000000000000000000" pitchFamily="50" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1194,6 +1358,88 @@
             <a:t> bodega</a:t>
           </a:r>
           <a:endParaRPr lang="es-GT" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>264319</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flecha: cheurón 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BD81DE-30B8-4370-8265-19FC49CF9C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="180975"/>
+          <a:ext cx="2369344" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="chevron">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-GT" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ABeeZee" panose="02000000000000000000" pitchFamily="50" charset="0"/>
+            </a:rPr>
+            <a:t>Trazar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-GT" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ABeeZee" panose="02000000000000000000" pitchFamily="50" charset="0"/>
+            </a:rPr>
+            <a:t> ruta</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-GT" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ABeeZee" panose="02000000000000000000" pitchFamily="50" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1489,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +2240,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,7 +2378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97DFBFE-A803-4879-863C-5395BEE965EA}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Proyecto2021.xlsx
+++ b/Proyecto2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\misitio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1E6B30-46E9-4B1F-AD7B-66C813A7CD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF34110-F184-49AE-8207-8F8A61639532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problema" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t>costos</t>
   </si>
@@ -134,18 +134,9 @@
     <t>Centro Comercial</t>
   </si>
   <si>
-    <t>Oakland Mall</t>
-  </si>
-  <si>
-    <t>Plaza Madero Roosevelt</t>
-  </si>
-  <si>
     <t>Km. 13.5 Calzada Roosevelt 7-59 zona 3 de Mixco</t>
   </si>
   <si>
-    <t>Centro Comercial Pradera Escuintla</t>
-  </si>
-  <si>
     <t>1 avenida 1-40, zona 3 Escuintla</t>
   </si>
   <si>
@@ -237,6 +228,9 @@
   </si>
   <si>
     <t xml:space="preserve">Camiones </t>
+  </si>
+  <si>
+    <t>Tienda</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1447,7 @@
   <autoFilter ref="A7:B10" xr:uid="{0A88EB54-602B-4032-B754-C58865ECAF86}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{8EB6AB2D-BE6E-4E26-BC99-E0A937BD9184}" name="Direcciones"/>
-    <tableColumn id="2" xr3:uid="{4CF6711B-B062-4639-BD28-2A4C16732CF0}" name="Centro Comercial"/>
+    <tableColumn id="2" xr3:uid="{4CF6711B-B062-4639-BD28-2A4C16732CF0}" name="Tienda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1735,9 +1729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:O35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1752,7 +1744,7 @@
   <sheetData>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H5" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -1770,28 +1762,28 @@
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="H6" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I6" s="16" t="str">
         <f>B8</f>
         <v>Tienda 1</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K6" s="17" t="str">
         <f>A15</f>
         <v>Bodega 1</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M6" s="16" t="str">
         <f>CONCATENATE(B15," ","Unidades")</f>
         <v>5000 Unidades</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O6" s="18" t="str">
         <f>'Distancia Bod a Tienda'!B16</f>
@@ -1806,28 +1798,28 @@
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="H7" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I7" s="16" t="str">
         <f>C8</f>
         <v>Tienda 2</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K7" s="16" t="str">
         <f>A15</f>
         <v>Bodega 1</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M7" s="16" t="str">
         <f>CONCATENATE(C15," ","Unidades")</f>
         <v>1500 Unidades</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O7" s="18" t="str">
         <f>'Distancia Bod a Tienda'!C16</f>
@@ -1836,7 +1828,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -1849,24 +1841,24 @@
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K8" s="23" t="str">
         <f>A17</f>
         <v>Bodega 3</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M8" s="23" t="str">
         <f>CONCATENATE(C17," ","Unidades")</f>
         <v>4000 Unidades</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O8" s="25" t="str">
         <f>'Distancia Bod a Tienda'!C18</f>
@@ -1875,11 +1867,11 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5">
         <f>('Distancia Bod a Tienda'!B9/'Distancia Bod a Tienda'!B22)*('Distancia Bod a Tienda'!B23)*2</f>
-        <v>4.4370750000000001</v>
+        <v>5.0331000000000001</v>
       </c>
       <c r="C9" s="5">
         <f>('Distancia Bod a Tienda'!C9/'Distancia Bod a Tienda'!B22)*('Distancia Bod a Tienda'!B23)*2</f>
@@ -1890,28 +1882,28 @@
         <v>37.32441</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I9" s="20" t="str">
         <f>D14</f>
         <v>Tienda 3</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K9" s="20" t="str">
         <f>A16</f>
         <v>Bodega 2</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M9" s="20" t="str">
         <f>CONCATENATE(D16," ","Unidades")</f>
         <v>4000 Unidades</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O9" s="21" t="str">
         <f>'Distancia Bod a Tienda'!D17</f>
@@ -1920,7 +1912,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5">
         <f>('Distancia Bod a Tienda'!B10/'Distancia Bod a Tienda'!B22)*('Distancia Bod a Tienda'!B23)*2</f>
@@ -1937,12 +1929,12 @@
       <c r="H10" s="22"/>
       <c r="I10" s="23"/>
       <c r="J10" s="27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="24">
         <f>B21</f>
-        <v>163178.4</v>
+        <v>166158.52499999999</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
@@ -1950,7 +1942,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5">
         <f>('Distancia Bod a Tienda'!B11/'Distancia Bod a Tienda'!B22)*('Distancia Bod a Tienda'!B23)*2</f>
@@ -1976,7 +1968,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>15</v>
@@ -1993,7 +1985,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
         <v>5000</v>
@@ -2010,7 +2002,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -2027,7 +2019,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -2075,7 +2067,7 @@
       </c>
       <c r="B21" s="5">
         <f>SUMPRODUCT(B15:D17,B9:D11)</f>
-        <v>163178.4</v>
+        <v>166158.52499999999</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>8</v>
@@ -2104,7 +2096,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2171,7 +2163,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -2240,7 +2232,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,7 +2278,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="26"/>
     </row>
@@ -2295,7 +2287,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2303,28 +2295,28 @@
         <v>19</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="26"/>
     </row>
@@ -2338,26 +2330,26 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2365,6 +2357,7 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A14:B14"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="2">
@@ -2378,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97DFBFE-A803-4879-863C-5395BEE965EA}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,7 +2390,6 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
@@ -2424,7 +2416,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -2440,7 +2432,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -2454,10 +2446,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="11">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="C9" s="11">
         <v>7</v>
@@ -2468,7 +2460,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="11">
         <v>19.899999999999999</v>
@@ -2482,7 +2474,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="11">
         <v>16</v>
@@ -2496,7 +2488,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -2512,7 +2504,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
@@ -2526,56 +2518,56 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B21" s="13">
         <v>20</v>
@@ -2583,7 +2575,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B22" s="13">
         <v>80</v>
@@ -2591,7 +2583,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5">
         <v>26.49</v>

--- a/Proyecto2021.xlsx
+++ b/Proyecto2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\misitio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF34110-F184-49AE-8207-8F8A61639532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47690FD-2118-4B8B-876E-10030833A880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2231,9 +2231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16F1394-E3A5-46E8-B7E2-AC94B9D2F7D2}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2371,9 +2369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97DFBFE-A803-4879-863C-5395BEE965EA}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
